--- a/20年春季线上授课课表.xlsx
+++ b/20年春季线上授课课表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\githubPro\RenminUniversityOfChina\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" tabRatio="810" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" tabRatio="810" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2018秋管科" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="84">
   <si>
     <t>日期</t>
   </si>
@@ -368,11 +368,56 @@
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">管理研究方法论  许伟 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">项目管理  余力              </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">知识管理   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>余艳（待定）</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">项目管理 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 左美云      </t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CIO与IT治理  杨波</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -528,9 +573,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -544,6 +586,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -831,8 +876,8 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:D14"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -849,46 +894,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
@@ -1050,7 +1095,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>68</v>
@@ -1122,12 +1167,12 @@
         <v>36</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="18"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="12" t="s">
         <v>37</v>
       </c>
@@ -1151,7 +1196,7 @@
       <c r="D15" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="18"/>
+      <c r="E15" s="17"/>
       <c r="F15" s="12" t="s">
         <v>40</v>
       </c>
@@ -1175,7 +1220,7 @@
       <c r="D16" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="18"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="11">
         <v>43595</v>
       </c>
@@ -1193,10 +1238,10 @@
       <c r="B17" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="20" t="s">
+      <c r="C17" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E17" s="6"/>
@@ -1217,14 +1262,14 @@
       <c r="B18" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E18" s="6"/>
-      <c r="F18" s="17">
+      <c r="F18" s="16">
         <v>43609</v>
       </c>
       <c r="G18" s="9" t="s">
@@ -1244,7 +1289,7 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="17">
+      <c r="F19" s="16">
         <v>43616</v>
       </c>
       <c r="G19" s="9" t="s">
@@ -1264,7 +1309,7 @@
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="17">
+      <c r="F20" s="16">
         <v>43623</v>
       </c>
       <c r="G20" s="9" t="s">
@@ -1284,7 +1329,7 @@
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="17">
+      <c r="F21" s="16">
         <v>43630</v>
       </c>
       <c r="G21" s="9" t="s">
@@ -1304,7 +1349,7 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="17">
+      <c r="F22" s="16">
         <v>43637</v>
       </c>
       <c r="G22" s="9" t="s">
@@ -1350,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1366,46 +1411,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
@@ -1744,7 +1789,7 @@
         <v>65</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="11">
@@ -1775,7 +1820,7 @@
         <v>65</v>
       </c>
       <c r="E18" s="6"/>
-      <c r="F18" s="17">
+      <c r="F18" s="16">
         <v>43609</v>
       </c>
       <c r="G18" s="9" t="s">
@@ -1900,8 +1945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1917,46 +1962,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
@@ -2151,7 +2196,7 @@
       <c r="D12" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="18" t="s">
         <v>73</v>
       </c>
       <c r="F12" s="12" t="s">
@@ -2251,12 +2296,12 @@
         <v>39</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="J15" s="18"/>
+      <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="12" t="s">
@@ -2316,7 +2361,7 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="17">
+      <c r="F18" s="16">
         <v>43609</v>
       </c>
       <c r="G18" s="9" t="s">
@@ -2340,7 +2385,7 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="17">
+      <c r="F19" s="16">
         <v>43616</v>
       </c>
       <c r="G19" s="9" t="s">
@@ -2364,7 +2409,7 @@
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="17">
+      <c r="F20" s="16">
         <v>43623</v>
       </c>
       <c r="G20" s="9" t="s">
@@ -2388,7 +2433,7 @@
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="17">
+      <c r="F21" s="16">
         <v>43630</v>
       </c>
       <c r="G21" s="9" t="s">
@@ -2410,7 +2455,7 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="17">
+      <c r="F22" s="16">
         <v>43637</v>
       </c>
       <c r="G22" s="9" t="s">
@@ -2430,7 +2475,7 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="17">
+      <c r="F23" s="16">
         <v>43644</v>
       </c>
       <c r="G23" s="9" t="s">
@@ -2455,8 +2500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2471,76 +2516,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="20" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2862,15 +2907,15 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="17">
+      <c r="F18" s="16">
         <v>43609</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
     </row>
     <row r="19" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="13">
@@ -2882,7 +2927,7 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="17">
+      <c r="F19" s="16">
         <v>43616</v>
       </c>
       <c r="G19" s="9" t="s">
@@ -2902,7 +2947,7 @@
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="17">
+      <c r="F20" s="16">
         <v>43623</v>
       </c>
       <c r="G20" s="9" t="s">
@@ -2922,7 +2967,7 @@
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="17">
+      <c r="F21" s="16">
         <v>43630</v>
       </c>
       <c r="G21" s="9" t="s">
@@ -2942,7 +2987,7 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="17">
+      <c r="F22" s="16">
         <v>43637</v>
       </c>
       <c r="G22" s="9" t="s">
@@ -2962,7 +3007,7 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="17">
+      <c r="F23" s="16">
         <v>43644</v>
       </c>
       <c r="G23" s="9" t="s">
@@ -3047,34 +3092,34 @@
       <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="20" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3311,7 +3356,7 @@
       <c r="D14" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="18"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="12" t="s">
         <v>37</v>
       </c>
@@ -3344,7 +3389,7 @@
       <c r="I15" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="J15" s="18"/>
+      <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="12" t="s">
@@ -3404,7 +3449,7 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="17">
+      <c r="F18" s="16">
         <v>43609</v>
       </c>
       <c r="G18" s="9" t="s">
@@ -3428,7 +3473,7 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="17">
+      <c r="F19" s="16">
         <v>43616</v>
       </c>
       <c r="G19" s="9" t="s">
@@ -3448,7 +3493,7 @@
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="17">
+      <c r="F20" s="16">
         <v>43623</v>
       </c>
       <c r="G20" s="9" t="s">
@@ -3549,46 +3594,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
@@ -3908,7 +3953,7 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="17">
+      <c r="F18" s="16">
         <v>43609</v>
       </c>
       <c r="G18" s="9" t="s">
@@ -3928,7 +3973,7 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="17">
+      <c r="F19" s="16">
         <v>43616</v>
       </c>
       <c r="G19" s="9" t="s">
@@ -3948,7 +3993,7 @@
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="17">
+      <c r="F20" s="16">
         <v>43623</v>
       </c>
       <c r="G20" s="9" t="s">
@@ -3968,7 +4013,7 @@
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="17">
+      <c r="F21" s="16">
         <v>43630</v>
       </c>
       <c r="G21" s="9" t="s">
@@ -3988,7 +4033,7 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="17">
+      <c r="F22" s="16">
         <v>43637</v>
       </c>
       <c r="G22" s="9" t="s">
@@ -4092,34 +4137,34 @@
       <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="20" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4274,13 +4319,13 @@
       <c r="B12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="18" t="s">
         <v>73</v>
       </c>
       <c r="F12" s="12" t="s">
@@ -4310,7 +4355,7 @@
       <c r="D13" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="18" t="s">
         <v>71</v>
       </c>
       <c r="F13" s="12" t="s">
@@ -4340,7 +4385,7 @@
       <c r="D14" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="18"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="12" t="s">
         <v>37</v>
       </c>
@@ -4377,7 +4422,7 @@
       <c r="I15" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="J15" s="18"/>
+      <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="12" t="s">
@@ -4437,7 +4482,7 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="17">
+      <c r="F18" s="16">
         <v>43609</v>
       </c>
       <c r="G18" s="9" t="s">
@@ -4461,7 +4506,7 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="17">
+      <c r="F19" s="16">
         <v>43616</v>
       </c>
       <c r="G19" s="9" t="s">
@@ -4481,7 +4526,7 @@
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="17">
+      <c r="F20" s="16">
         <v>43623</v>
       </c>
       <c r="G20" s="9" t="s">
@@ -4501,7 +4546,7 @@
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="17">
+      <c r="F21" s="16">
         <v>43630</v>
       </c>
       <c r="G21" s="9" t="s">
@@ -4521,7 +4566,7 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="17">
+      <c r="F22" s="16">
         <v>43637</v>
       </c>
       <c r="G22" s="9" t="s">
@@ -4541,7 +4586,7 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="17">
+      <c r="F23" s="16">
         <v>43644</v>
       </c>
       <c r="G23" s="9" t="s">
@@ -4566,7 +4611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E8" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -4582,46 +4627,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
@@ -4941,7 +4986,7 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="17">
+      <c r="F18" s="16">
         <v>43609</v>
       </c>
       <c r="G18" s="9" t="s">
@@ -4961,7 +5006,7 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="17">
+      <c r="F19" s="16">
         <v>43616</v>
       </c>
       <c r="G19" s="9" t="s">
@@ -4981,7 +5026,7 @@
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="17">
+      <c r="F20" s="16">
         <v>43623</v>
       </c>
       <c r="G20" s="9" t="s">
@@ -5001,7 +5046,7 @@
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="17">
+      <c r="F21" s="16">
         <v>43630</v>
       </c>
       <c r="G21" s="9" t="s">
@@ -5021,7 +5066,7 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="17">
+      <c r="F22" s="16">
         <v>43637</v>
       </c>
       <c r="G22" s="9" t="s">
@@ -5041,7 +5086,7 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="17">
+      <c r="F23" s="16">
         <v>43644</v>
       </c>
       <c r="G23" s="9" t="s">

--- a/20年春季线上授课课表.xlsx
+++ b/20年春季线上授课课表.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="84">
   <si>
     <t>日期</t>
   </si>
@@ -256,23 +256,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">商务智能 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 何军              </t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">计算理论导论 </t>
     </r>
     <r>
@@ -326,6 +309,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -369,32 +353,12 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">管理研究方法论  许伟 </t>
+    <t>商务智能 何军</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">项目管理  余力              </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">知识管理   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>余艳（待定）</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">项目管理 </t>
+      <t xml:space="preserve">学术规范与论文写作 </t>
     </r>
     <r>
       <rPr>
@@ -405,12 +369,37 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 左美云      </t>
+      <t xml:space="preserve"> 左美云</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>CIO与IT治理  杨波</t>
+    <t>网络与通讯 何军</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级操作系统 朱青</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">电子商务 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 杨波</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子政务  杨波</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -524,7 +513,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -587,6 +576,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -876,8 +868,8 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -894,46 +886,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
@@ -1095,10 +1087,10 @@
         <v>27</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="12" t="s">
@@ -1119,10 +1111,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="12" t="s">
@@ -1143,10 +1135,10 @@
         <v>33</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="12" t="s">
@@ -1167,10 +1159,10 @@
         <v>36</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="12" t="s">
@@ -1191,10 +1183,10 @@
         <v>39</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="12" t="s">
@@ -1215,10 +1207,10 @@
         <v>42</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="11">
@@ -1239,10 +1231,10 @@
         <v>44</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="11">
@@ -1263,10 +1255,10 @@
         <v>45</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="16">
@@ -1395,8 +1387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1411,46 +1403,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
@@ -1638,10 +1630,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="4" t="s">
@@ -1668,10 +1660,10 @@
         <v>33</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="4" t="s">
@@ -1711,13 +1703,13 @@
         <v>36</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1741,13 +1733,13 @@
         <v>39</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1771,12 +1763,14 @@
         <v>42</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="J16" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="12" t="s">
@@ -1785,11 +1779,11 @@
       <c r="B17" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>82</v>
+      <c r="C17" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="11">
@@ -1799,12 +1793,14 @@
         <v>44</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="J17" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="13">
@@ -1813,11 +1809,11 @@
       <c r="B18" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>65</v>
+      <c r="C18" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="16">
@@ -1938,6 +1934,7 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1945,8 +1942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1962,46 +1959,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
@@ -2163,10 +2160,10 @@
         <v>27</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="12" t="s">
@@ -2176,10 +2173,10 @@
         <v>27</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J11" s="10"/>
     </row>
@@ -2191,13 +2188,13 @@
         <v>30</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>31</v>
@@ -2206,10 +2203,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J12" s="6"/>
     </row>
@@ -2221,13 +2218,13 @@
         <v>33</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>34</v>
@@ -2236,10 +2233,10 @@
         <v>33</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J13" s="6"/>
     </row>
@@ -2251,13 +2248,13 @@
         <v>36</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>37</v>
@@ -2266,10 +2263,10 @@
         <v>36</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J14" s="10"/>
     </row>
@@ -2281,10 +2278,10 @@
         <v>39</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>55</v>
@@ -2296,10 +2293,10 @@
         <v>39</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J15" s="17"/>
     </row>
@@ -2320,10 +2317,10 @@
         <v>42</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J16" s="6"/>
     </row>
@@ -2344,10 +2341,10 @@
         <v>44</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J17" s="6"/>
     </row>
@@ -2368,10 +2365,10 @@
         <v>45</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J18" s="9"/>
     </row>
@@ -2395,7 +2392,7 @@
         <v>55</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J19" s="9"/>
     </row>
@@ -2440,7 +2437,7 @@
         <v>48</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2500,8 +2497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2516,46 +2513,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
@@ -2716,8 +2713,12 @@
       <c r="B11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="C11" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="E11" s="6"/>
       <c r="F11" s="12" t="s">
         <v>28</v>
@@ -2726,14 +2727,12 @@
         <v>27</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>60</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12" t="s">
@@ -2742,8 +2741,12 @@
       <c r="B12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="C12" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="E12" s="6"/>
       <c r="F12" s="12" t="s">
         <v>31</v>
@@ -2752,14 +2755,12 @@
         <v>30</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>60</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="12" t="s">
@@ -2769,13 +2770,13 @@
         <v>33</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>34</v>
@@ -2784,10 +2785,10 @@
         <v>33</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J13" s="14" t="s">
         <v>55</v>
@@ -2801,13 +2802,13 @@
         <v>36</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>37</v>
@@ -2815,15 +2816,9 @@
       <c r="G14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>61</v>
-      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
     </row>
     <row r="15" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
@@ -2833,10 +2828,10 @@
         <v>39</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>55</v>
@@ -2847,15 +2842,9 @@
       <c r="G15" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>61</v>
-      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="12" t="s">
@@ -2864,8 +2853,12 @@
       <c r="B16" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="C16" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="E16" s="6"/>
       <c r="F16" s="11">
         <v>43595</v>
@@ -2873,9 +2866,9 @@
       <c r="G16" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
     </row>
     <row r="17" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="12" t="s">
@@ -2884,8 +2877,12 @@
       <c r="B17" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="C17" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="E17" s="6"/>
       <c r="F17" s="11">
         <v>43602</v>
@@ -2893,9 +2890,9 @@
       <c r="G17" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
     </row>
     <row r="18" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="13">
@@ -3033,8 +3030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="C8" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3042,7 +3039,8 @@
     <col min="1" max="1" width="8.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2" customWidth="1"/>
     <col min="3" max="3" width="20.75" style="2" customWidth="1"/>
-    <col min="4" max="5" width="18.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="8.375" style="2" customWidth="1"/>
     <col min="7" max="7" width="7.875" style="2" customWidth="1"/>
     <col min="8" max="10" width="18.125" style="2" customWidth="1"/>
@@ -3050,46 +3048,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
@@ -3216,10 +3214,10 @@
         <v>18</v>
       </c>
       <c r="H8" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="14" t="s">
         <v>77</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>78</v>
       </c>
       <c r="J8" s="9"/>
     </row>
@@ -3279,10 +3277,10 @@
         <v>27</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="12" t="s">
@@ -3291,8 +3289,12 @@
       <c r="G11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
+      <c r="H11" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>82</v>
+      </c>
       <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -3303,10 +3305,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="12" t="s">
@@ -3315,8 +3317,12 @@
       <c r="G12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="H12" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>82</v>
+      </c>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -3327,10 +3333,10 @@
         <v>33</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="12" t="s">
@@ -3339,8 +3345,12 @@
       <c r="G13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="H13" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>83</v>
+      </c>
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -3351,10 +3361,10 @@
         <v>36</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="12" t="s">
@@ -3363,8 +3373,12 @@
       <c r="G14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+      <c r="H14" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>83</v>
+      </c>
       <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -3384,10 +3398,10 @@
         <v>39</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J15" s="17"/>
     </row>
@@ -3408,10 +3422,10 @@
         <v>42</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J16" s="6"/>
     </row>
@@ -3432,10 +3446,10 @@
         <v>44</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J17" s="6"/>
     </row>
@@ -3456,10 +3470,10 @@
         <v>45</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J18" s="9"/>
     </row>
@@ -3571,6 +3585,7 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3578,8 +3593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3594,46 +3609,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
@@ -3818,8 +3833,12 @@
       <c r="B12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="E12" s="6"/>
       <c r="F12" s="12" t="s">
         <v>31</v>
@@ -3842,8 +3861,12 @@
       <c r="B13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="E13" s="6"/>
       <c r="F13" s="12" t="s">
         <v>34</v>
@@ -3866,8 +3889,12 @@
       <c r="B14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="C14" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="E14" s="9"/>
       <c r="F14" s="12" t="s">
         <v>37</v>
@@ -3930,8 +3957,12 @@
       <c r="B17" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="C17" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>78</v>
+      </c>
       <c r="E17" s="6"/>
       <c r="F17" s="11">
         <v>43602</v>
@@ -3950,8 +3981,12 @@
       <c r="B18" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="C18" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>78</v>
+      </c>
       <c r="E18" s="6"/>
       <c r="F18" s="16">
         <v>43609</v>
@@ -4079,8 +4114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="E11" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4095,46 +4130,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
@@ -4295,8 +4330,12 @@
       <c r="B11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="C11" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="E11" s="6"/>
       <c r="F11" s="12" t="s">
         <v>28</v>
@@ -4305,10 +4344,10 @@
         <v>27</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J11" s="10"/>
     </row>
@@ -4319,14 +4358,14 @@
       <c r="B12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>73</v>
+      <c r="C12" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>67</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>31</v>
@@ -4335,10 +4374,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J12" s="6"/>
     </row>
@@ -4349,14 +4388,14 @@
       <c r="B13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>68</v>
+      <c r="C13" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>34</v>
@@ -4365,10 +4404,10 @@
         <v>33</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J13" s="6"/>
     </row>
@@ -4379,12 +4418,8 @@
       <c r="B14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>68</v>
-      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="12" t="s">
         <v>37</v>
@@ -4393,10 +4428,10 @@
         <v>36</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J14" s="10"/>
     </row>
@@ -4417,10 +4452,10 @@
         <v>39</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J15" s="17"/>
     </row>
@@ -4441,10 +4476,10 @@
         <v>42</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J16" s="6"/>
     </row>
@@ -4465,10 +4500,10 @@
         <v>44</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J17" s="6"/>
     </row>
@@ -4489,10 +4524,10 @@
         <v>45</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J18" s="9"/>
     </row>
@@ -4611,8 +4646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4627,46 +4662,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
@@ -4851,8 +4886,12 @@
       <c r="B12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="E12" s="6"/>
       <c r="F12" s="12" t="s">
         <v>31</v>
@@ -4875,8 +4914,12 @@
       <c r="B13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="E13" s="6"/>
       <c r="F13" s="12" t="s">
         <v>34</v>
@@ -4899,8 +4942,12 @@
       <c r="B14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="C14" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="E14" s="9"/>
       <c r="F14" s="12" t="s">
         <v>37</v>
@@ -5109,5 +5156,6 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/20年春季线上授课课表.xlsx
+++ b/20年春季线上授课课表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\githubPro\RenminUniversityOfChina\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\gitPro\RenminUniversityOfChina\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" tabRatio="810" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" tabRatio="810" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018秋管科" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="87">
   <si>
     <t>日期</t>
   </si>
@@ -400,6 +400,44 @@
   </si>
   <si>
     <t>电子政务  杨波</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">管理研究方法论  许伟 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">项目管理 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 左美云      </t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">BMS原理与实现  李翠平 </t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -868,8 +906,8 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:D14"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1087,7 +1125,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>67</v>
@@ -1387,8 +1425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1703,7 +1741,7 @@
         <v>36</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="I14" s="14" t="s">
         <v>64</v>
@@ -1763,7 +1801,7 @@
         <v>42</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="I16" s="14" t="s">
         <v>61</v>
@@ -2497,7 +2535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
